--- a/python/TeamProject/Coupang.xlsx
+++ b/python/TeamProject/Coupang.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>내사랑꾸나 3DAY 일반형 백팩 45L</t>
+          <t>블루마운트 캐주얼 등산 힙색 JYZ963</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>6780</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(229)</t>
+          <t>(425)</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -488,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>바디공식 대용량 학생가방</t>
+          <t>말랑젤리 캠퍼스 크로스백</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(64)</t>
+          <t>(2302)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -515,12 +515,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>군인(밀리터리) 가방 검정 백팩 40L + 태극기 남자 학생 출타 배낭</t>
+          <t>루루백 엔딩쇼퍼백 + 가방 소품 랜덤 발송</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21900</t>
+          <t>12230</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(27)</t>
+          <t>(960)</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -542,12 +542,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>밸런시스 NR1 센터라인 요가 매트 + 가방, 버건디</t>
+          <t>오르비 러밀라 크로스백</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>12900</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(1335)</t>
+          <t>(5)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -569,22 +569,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>라온투유 심플 패션 다용도 백팩</t>
+          <t>마르코폴로 남녀공용 포틴 백팩 MP6414 + 패브릭 키링 랜덤 발송</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>13710</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(1)</t>
+          <t>(2691)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -596,12 +596,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>루비코코 캔버스 대용량 학생 여행 대용량 백팩</t>
+          <t>엘엘리빙 화장품 메이크업 여행용 파우치 미니</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26300</t>
+          <t>13920</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>코멧 머미형 사계절용 침낭 220 x 80cm, 미드나잇 블랙 R, 1개</t>
+          <t>마르코폴로 포스티백팩 MP6503+키링 랜덤발송</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>26640</t>
+          <t>14340</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(6534)</t>
+          <t>(1919)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -650,12 +650,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>블루밍홈 제니아큐브 캐리어</t>
+          <t>프롬헤븐 루샌 퀼팅 여성 미니 크로스백</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(5197)</t>
+          <t>(978)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -677,12 +677,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>블루밍홈 제니아트립 여행가방 캐리어</t>
+          <t>루루백 여성용 블루섬 크로스백</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>15750</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(1615)</t>
+          <t>(2035)</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -704,12 +704,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>이에스토두스 포켓 파우치 미니 크로스백</t>
+          <t>프롬헤븐 슈래블 학생 대용량 백팩 P706</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28420</t>
+          <t>15800</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(68)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -731,12 +731,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>앙뜨레 3단 대형 여행가방 SH-701</t>
+          <t>애드에딧 멜린캔버스 에코백</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28750</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -746,10 +746,469 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(205)</t>
+          <t>(565)</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>베이스알파에센셜 슬림 락시스템 크로스백</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(2081)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>코피 가벼운 남녀공용 캐주얼 학생 여행 블랙 레터링 백팩 책가방</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16900</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>(413)</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>애드에딧 벤크 보스턴백</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(276)</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>프롬헤븐 테르 슈프림 여행용 보스턴백</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17900</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(437)</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>프롬헤븐 하프문 에코크로스백</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(709)</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>엔도르시 여성용 데일리 빅사이즈 숄더 토트백 EBA048</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18900</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(383)</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>바디공식 대용량 학생가방</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19800</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>(65)</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>모닝글로리 캠퍼스 메이트 백팩</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19950</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>(19)</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>베이스알파에센셜 클래식 비즈니스 백팩</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23980</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(1200)</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>오주코 가성비 끝판왕 여행용 백팩 SNS 화제 아이템</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24850</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(1424)</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>남자 가방 에코백 크로스백 블랙 무지 텀블러백</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25800</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>(600)</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>에센셜 토트백</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>26900</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>프롬헤븐 밤부 학생 캐주얼 백팩 + 빅 파우치 + 스몰 파우치 세트 H733</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27770</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>(217)</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>벤쿠쿠 캐주얼 초경량 백팩 MP58</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27900</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>(41)</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>애드에딧 어맨더 백팩</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>28900</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>(805)</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>애드에딧 칸막이 스니커 보스턴백 + 키홀더 랜덤</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>29000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>(262)</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>바로가기</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>아디다스 파워 V 남녀공용백팩 FI7968</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>29150</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>(287)</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
         </is>
@@ -768,6 +1227,23 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" r:id="rId10"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/python/TeamProject/Coupang.xlsx
+++ b/python/TeamProject/Coupang.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,16 +457,21 @@
           <t>제품 링크</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>이미지</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>블루마운트 캐주얼 등산 힙색 JYZ963</t>
+          <t>말랑젤리 캠퍼스 크로스백</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6780</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,24 +481,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(425)</t>
+          <t>(2310)</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>말랑젤리 캠퍼스 크로스백</t>
+          <t>루루백 엔딩쇼퍼백 + 가방 소품 랜덤 발송</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>12230</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,24 +513,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(2302)</t>
+          <t>(961)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>루루백 엔딩쇼퍼백 + 가방 소품 랜덤 발송</t>
+          <t>롸잇나우 토트 앤 숄더 에코백 RM01222</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12230</t>
+          <t>13180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,24 +545,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(960)</t>
+          <t>(565)</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>오르비 러밀라 크로스백</t>
+          <t>마르코폴로 남녀공용 포틴 백팩 MP6414 + 패브릭 키링 랜덤 발송</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12900</t>
+          <t>13710</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -557,24 +577,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(5)</t>
+          <t>(2695)</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>마르코폴로 남녀공용 포틴 백팩 MP6414 + 패브릭 키링 랜덤 발송</t>
+          <t>루루백 여성용 블루섬 크로스백</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13710</t>
+          <t>15050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -584,51 +609,61 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(2691)</t>
+          <t>(2039)</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>엘엘리빙 화장품 메이크업 여행용 파우치 미니</t>
+          <t>애드에딧 멜린캔버스 에코백</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13920</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(2)</t>
+          <t>(568)</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://thumbnail7.coupangcdn.com/thumbnails/remote/230x230ex/image/rs_quotation_api/gqrlc2b9/2e292c82d3ae4fc3a1858331f3d14132.jpg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>마르코폴로 포스티백팩 MP6503+키링 랜덤발송</t>
+          <t>베이스알파에센셜 슬림 락시스템 크로스백</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14340</t>
+          <t>15940</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -638,24 +673,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(1919)</t>
+          <t>(2082)</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>프롬헤븐 루샌 퀼팅 여성 미니 크로스백</t>
+          <t>코피 가벼운 남녀공용 캐주얼 학생 여행 블랙 레터링 백팩 책가방</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14900</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,24 +705,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(978)</t>
+          <t>(413)</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>루루백 여성용 블루섬 크로스백</t>
+          <t>마르코폴로 랜드 크로스백 MP3028 + 키링 랜덤 발송</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15750</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -692,78 +737,93 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(2035)</t>
+          <t>(798)</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>프롬헤븐 슈래블 학생 대용량 백팩 P706</t>
+          <t>내사랑꾸나 3DAY 일반형 백팩 45L</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15800</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(68)</t>
+          <t>(232)</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://thumbnail6.coupangcdn.com/thumbnails/remote/230x230ex/image/vendor_inventory/338a/5312f4a39c5d698ae2ffe18e1c0fc02e486e123cbb642b1aa39125d28e0c.jpg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>애드에딧 멜린캔버스 에코백</t>
+          <t>스퀘어 가벼운 누빔 퀼팅 토드백 패딩 크로스백</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>평점 없음</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(565)</t>
+          <t>평점 없음</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>베이스알파에센셜 슬림 락시스템 크로스백</t>
+          <t>프롬헤븐 하프문 에코크로스백</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15940</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -773,51 +833,61 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>(2081)</t>
+          <t>(710)</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://thumbnail9.coupangcdn.com/thumbnails/remote/230x230ex/image/retail/images/2019/07/17/15/7/f65b3ae6-5a97-472b-b75a-c011727d35fa.jpg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>코피 가벼운 남녀공용 캐주얼 학생 여행 블랙 레터링 백팩 책가방</t>
+          <t>프롬헤븐 스카치 백팩 P714 콤프</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>19460</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>(413)</t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>애드에딧 벤크 보스턴백</t>
+          <t>프롬헤븐 포코 남여공용 캔버스 백팩 H734</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17370</t>
+          <t>19480</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -827,24 +897,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(276)</t>
+          <t>(10)</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>프롬헤븐 테르 슈프림 여행용 보스턴백</t>
+          <t>바디공식 데일리 슬림 백팩</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>17900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -854,24 +929,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(437)</t>
+          <t>(192)</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://thumbnail9.coupangcdn.com/thumbnails/remote/230x230ex/image/rs_quotation_api/gnuklskd/cf3cb318f0a646189a7766857a72d8e2.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>프롬헤븐 하프문 에코크로스백</t>
+          <t>바디공식 데일리 슬림 백팩</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -881,39 +961,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(709)</t>
+          <t>(192)</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://thumbnail9.coupangcdn.com/thumbnails/remote/230x230ex/image/rs_quotation_api/gnuklskd/cf3cb318f0a646189a7766857a72d8e2.png</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>엔도르시 여성용 데일리 빅사이즈 숄더 토트백 EBA048</t>
+          <t>바디공식 대용량 학생가방</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(383)</t>
+          <t>(66)</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://thumbnail9.coupangcdn.com/thumbnails/remote/230x230ex/image/rs_quotation_api/ntuauhpq/6d264b60615c473393f508621c7e5f60.jpg</t>
         </is>
       </c>
     </row>
@@ -935,12 +1025,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>(65)</t>
+          <t>(66)</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
@@ -970,70 +1065,85 @@
           <t>바로가기</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>베이스알파에센셜 클래식 비즈니스 백팩</t>
+          <t>애드에딧 마틴 방수 크로스백 + 키링 세트</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23980</t>
+          <t>21900</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(1200)</t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>오주코 가성비 끝판왕 여행용 백팩 SNS 화제 아이템</t>
+          <t>엔도르시 여성용 빅스퀘어 고퀄 체인 숄더백 EBA943</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24850</t>
+          <t>23800</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>평점 없음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(1424)</t>
+          <t>평점 없음</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>남자 가방 에코백 크로스백 블랙 무지 텀블러백</t>
+          <t>베이스알파에센셜 클래식 비즈니스 백팩</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25800</t>
+          <t>23980</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1043,51 +1153,61 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>(600)</t>
+          <t>(1200)</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>에센셜 토트백</t>
+          <t>오주코 가성비 끝판왕 여행용 백팩 SNS 화제 아이템</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26900</t>
+          <t>24850</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>(3)</t>
+          <t>(1426)</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>프롬헤븐 밤부 학생 캐주얼 백팩 + 빅 파우치 + 스몰 파우치 세트 H733</t>
+          <t>유앤미 이에르바 백팩</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27770</t>
+          <t>25800</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1097,39 +1217,49 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(217)</t>
+          <t>(17)</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>벤쿠쿠 캐주얼 초경량 백팩 MP58</t>
+          <t>프롬헤븐 밤부 학생 캐주얼 백팩 + 빅 파우치 + 스몰 파우치 세트 H733</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>27900</t>
+          <t>27770</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>(41)</t>
+          <t>(220)</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://thumbnail6.coupangcdn.com/thumbnails/remote/230x230ex/image/rs_quotation_api/4souaubc/246a3802be0447e3be1a55283eaf29b2.jpg</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1281,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(805)</t>
+          <t>(808)</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
           <t>바로가기</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
@@ -1186,31 +1321,9 @@
           <t>바로가기</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>아디다스 파워 V 남녀공용백팩 FI7968</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>29150</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>(287)</t>
-        </is>
-      </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t>바로가기</t>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://img1a.coupangcdn.com/image/coupang/search/blank1x1.gif</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1356,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E26" r:id="rId25"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E27" r:id="rId26"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
